--- a/ملفات الاكسل لمشروع التخرج/‏‏‏‏plan-subject-دبلوم التبريد والتكييف.xlsx
+++ b/ملفات الاكسل لمشروع التخرج/‏‏‏‏plan-subject-دبلوم التبريد والتكييف.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bit\Desktop\tamplete\final\timetable-pro\ملفات الاكسل لمشروع التخرج\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA0EF72-5363-48AA-ADAD-1E33E967FFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E329902-AB43-45B0-876D-E51EC39C3DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>plan_subject_id</t>
   </si>
@@ -45,27 +45,9 @@
     <t xml:space="preserve">سنة أولى </t>
   </si>
   <si>
-    <t>اول</t>
-  </si>
-  <si>
-    <t>أولى</t>
-  </si>
-  <si>
-    <t>أول</t>
-  </si>
-  <si>
-    <t>مقدمة في الحاسوب</t>
-  </si>
-  <si>
     <t>اللغة العربية</t>
   </si>
   <si>
-    <t>مبادئ الدوائر الكهربائية</t>
-  </si>
-  <si>
-    <t>أساسيات الحراريات والموائع</t>
-  </si>
-  <si>
     <t>مشغل هندسي</t>
   </si>
   <si>
@@ -75,21 +57,9 @@
     <t>الإشراف والتنظيم الصناعي</t>
   </si>
   <si>
-    <t>أساسيات التحكم في أنظمة التبريد و تكييف الهواء</t>
-  </si>
-  <si>
-    <t>أساسيات التبريد</t>
-  </si>
-  <si>
-    <t>أساسيات التكييف</t>
-  </si>
-  <si>
     <t>ورشة التبريد والتكييف I</t>
   </si>
   <si>
-    <t>الكترونيات تطبيقية I</t>
-  </si>
-  <si>
     <t>تاريخ القدس</t>
   </si>
   <si>
@@ -99,27 +69,9 @@
     <t>اللغة الإنجليزية</t>
   </si>
   <si>
-    <t>نظم ومعدات التبريد</t>
-  </si>
-  <si>
-    <t>نظم ومعدات تكييف الهواء</t>
-  </si>
-  <si>
-    <t>أنظمة التحكم في التبريد وتكييف الهواء</t>
-  </si>
-  <si>
-    <t>مقدمة في الصيانة الالكترونية والكهربية</t>
-  </si>
-  <si>
-    <t>الكترونيات تطبيقية II</t>
-  </si>
-  <si>
     <t>فيزياء عامة</t>
   </si>
   <si>
-    <t>القياسات</t>
-  </si>
-  <si>
     <t>ريادة الأعمال I</t>
   </si>
   <si>
@@ -129,31 +81,121 @@
     <t>تدريب ميداني</t>
   </si>
   <si>
-    <t>تطبيقات الحاسب الآلي في التبريد وتكييف الهواء</t>
-  </si>
-  <si>
-    <t>تكييف الهواء المركزي</t>
-  </si>
-  <si>
     <t>ورشة التبريد والتكييف II</t>
   </si>
   <si>
-    <t>التبريد التجاري والصناعي</t>
-  </si>
-  <si>
-    <t>صيانة أنظمة التبريد وتكييف الهواء</t>
-  </si>
-  <si>
     <t>مشروع التخرج</t>
   </si>
   <si>
-    <t>ريادة الأعمال II</t>
-  </si>
-  <si>
     <t>EEE</t>
   </si>
   <si>
-    <t>دبلوم التبريد والتكييف</t>
+    <t>مقدمة في الحاسوب - نظري</t>
+  </si>
+  <si>
+    <t>مقدمة في الحاسوب - عملي</t>
+  </si>
+  <si>
+    <t>مبادئ الدوائر الكهربائية - نظري</t>
+  </si>
+  <si>
+    <t>مبادئ الدوائر الكهربائية - عملي</t>
+  </si>
+  <si>
+    <t>أساسيات الحراريات والموائع - نظري</t>
+  </si>
+  <si>
+    <t>أساسيات الحراريات والموائع - عملي</t>
+  </si>
+  <si>
+    <t>أساسيات التحكم في أنظمة التبريد و تكييف الهواء - نظري</t>
+  </si>
+  <si>
+    <t>أساسيات التحكم في أنظمة التبريد و تكييف الهواء - عملي</t>
+  </si>
+  <si>
+    <t>أساسيات التبريد - نظري</t>
+  </si>
+  <si>
+    <t>أساسيات التبريد - عملي</t>
+  </si>
+  <si>
+    <t>أساسيات التكييف - نظري</t>
+  </si>
+  <si>
+    <t>أساسيات التكييف - عملي</t>
+  </si>
+  <si>
+    <t>الكترونيات تطبيقية I - نظري</t>
+  </si>
+  <si>
+    <t>الكترونيات تطبيقية I - عملي</t>
+  </si>
+  <si>
+    <t>نظم ومعدات التبريد - نظري</t>
+  </si>
+  <si>
+    <t>نظم ومعدات التبريد - عملي</t>
+  </si>
+  <si>
+    <t>نظم ومعدات تكييف الهواء - نظري</t>
+  </si>
+  <si>
+    <t>نظم ومعدات تكييف الهواء - عملي</t>
+  </si>
+  <si>
+    <t>أنظمة التحكم في التبريد وتكييف الهواء - نظري</t>
+  </si>
+  <si>
+    <t>أنظمة التحكم في التبريد وتكييف الهواء - عملي</t>
+  </si>
+  <si>
+    <t>مقدمة في الصيانة الالكترونية والكهربية - نظري</t>
+  </si>
+  <si>
+    <t>مقدمة في الصيانة الالكترونية والكهربية - عملي</t>
+  </si>
+  <si>
+    <t>الكترونيات تطبيقية II - نظري</t>
+  </si>
+  <si>
+    <t>الكترونيات تطبيقية II - عملي</t>
+  </si>
+  <si>
+    <t>القياسات - نظري</t>
+  </si>
+  <si>
+    <t>القياسات - عملي</t>
+  </si>
+  <si>
+    <t>تطبيقات الحاسب الآلي في التبريد وتكييف الهواء - نظري</t>
+  </si>
+  <si>
+    <t>تطبيقات الحاسب الآلي في التبريد وتكييف الهواء - عملي</t>
+  </si>
+  <si>
+    <t>تكييف الهواء المركزي - نظري</t>
+  </si>
+  <si>
+    <t>تكييف الهواء المركزي - عملي</t>
+  </si>
+  <si>
+    <t>التبريد التجاري والصناعي - نظري</t>
+  </si>
+  <si>
+    <t>التبريد التجاري والصناعي - عملي</t>
+  </si>
+  <si>
+    <t>صيانة أنظمة التبريد وتكييف الهواء - نظري</t>
+  </si>
+  <si>
+    <t>صيانة أنظمة التبريد وتكييف الهواء - عملي</t>
+  </si>
+  <si>
+    <t>ريادة الأعمال II - نظري</t>
+  </si>
+  <si>
+    <t>ريادة الأعمال II - عملي</t>
   </si>
 </sst>
 </file>
@@ -478,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -515,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -524,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -532,16 +574,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -549,16 +591,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -566,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -575,7 +617,24 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -583,16 +642,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -600,33 +659,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -634,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -643,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -651,7 +693,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -660,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -668,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -677,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -685,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -694,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -702,7 +744,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -711,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -719,7 +761,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -728,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -736,7 +778,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -745,7 +787,24 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -753,16 +812,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -770,16 +829,16 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -787,16 +846,16 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -804,16 +863,16 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -821,16 +880,16 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -838,33 +897,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -872,16 +914,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -889,16 +931,33 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -906,16 +965,16 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -923,16 +982,16 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -940,16 +999,16 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -957,16 +1016,16 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -974,16 +1033,16 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -991,16 +1050,16 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
         <v>42</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1008,16 +1067,16 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1025,16 +1084,16 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1042,16 +1101,305 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>42</v>
       </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>40</v>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
